--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>-16.143121852742</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.120140150293997</v>
+        <v>-9.029921091411662</v>
       </c>
       <c r="F2" t="n">
-        <v>5.526965300006935</v>
+        <v>5.815912423723828</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.76551813439447</v>
+        <v>-15.85224154841807</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.43661505795804</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.445588614333623</v>
+        <v>-9.320216722321254</v>
       </c>
       <c r="F3" t="n">
-        <v>5.425604691406291</v>
+        <v>5.725706457144336</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.29901319953809</v>
+        <v>-15.3885645509755</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.62374889645159</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.514545773400995</v>
+        <v>-9.375492424919022</v>
       </c>
       <c r="F4" t="n">
-        <v>5.580355710995494</v>
+        <v>5.863542221462028</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.55022512311125</v>
+        <v>-14.61411556097887</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.78602083249799</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.45150951857196</v>
+        <v>-10.32728974920967</v>
       </c>
       <c r="F5" t="n">
-        <v>5.644874579399519</v>
+        <v>5.935942656176773</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.6408468600278</v>
+        <v>-13.64794288816801</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.93731657379498</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.04007399282176</v>
+        <v>-10.91700634610953</v>
       </c>
       <c r="F6" t="n">
-        <v>5.861944960515338</v>
+        <v>6.147278608647916</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.88214791034977</v>
+        <v>-12.88716226233815</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.11413218323476</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.82626677846741</v>
+        <v>-11.73139995207626</v>
       </c>
       <c r="F7" t="n">
-        <v>6.169823554141368</v>
+        <v>6.463981414389269</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.62094019300062</v>
+        <v>-11.57370316434767</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.30357741261433</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.62310360632338</v>
+        <v>-12.53439016226785</v>
       </c>
       <c r="F8" t="n">
-        <v>6.422478814380997</v>
+        <v>6.732007038165086</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.92686485014935</v>
+        <v>-10.85344321581295</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.52634449188086</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.33563909618148</v>
+        <v>-13.25677106386292</v>
       </c>
       <c r="F9" t="n">
-        <v>6.488909158999916</v>
+        <v>6.797285260133932</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.791578901531917</v>
+        <v>-9.661035549897067</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.763202161413892</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.36152576225345</v>
+        <v>-14.29476811006349</v>
       </c>
       <c r="F10" t="n">
-        <v>6.658559219223002</v>
+        <v>6.957456493099608</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.190053047468814</v>
+        <v>-9.036755273495043</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.013427398716969</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.2693329489959</v>
+        <v>-15.19703725270388</v>
       </c>
       <c r="F11" t="n">
-        <v>6.878955045260619</v>
+        <v>7.181308687087441</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.440427063660104</v>
+        <v>-8.246032551066156</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.276166070299865</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.48103866930049</v>
+        <v>-16.44801988153365</v>
       </c>
       <c r="F12" t="n">
-        <v>6.827790325755153</v>
+        <v>7.119434463857443</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.018632343008216</v>
+        <v>-7.812206004102721</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.539022530764103</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.39753914512984</v>
+        <v>-17.4042424041848</v>
       </c>
       <c r="F13" t="n">
-        <v>6.696160312984439</v>
+        <v>7.006971582447016</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.708384042567832</v>
+        <v>-7.533785091870574</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.821540127262292</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.7275600062151</v>
+        <v>-18.76555386906179</v>
       </c>
       <c r="F14" t="n">
-        <v>6.743109310974869</v>
+        <v>7.020587577402411</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.817518295702582</v>
+        <v>-6.616787108533238</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.119535715012416</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.78709389059031</v>
+        <v>-19.84272308536481</v>
       </c>
       <c r="F15" t="n">
-        <v>6.709304985037532</v>
+        <v>6.999954108123851</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.344598132453753</v>
+        <v>-6.149679927746136</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.443573239054585</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.74334259784714</v>
+        <v>-20.80487642120325</v>
       </c>
       <c r="F16" t="n">
-        <v>6.633238705527104</v>
+        <v>6.906213219777093</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.750757460158742</v>
+        <v>-5.543951444470838</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.797860557299387</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.77733339937814</v>
+        <v>-21.8690973499958</v>
       </c>
       <c r="F17" t="n">
-        <v>6.936325516313063</v>
+        <v>7.217626735170389</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.777950173161007</v>
+        <v>-5.610984035020475</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.175765699943079</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.62029441014552</v>
+        <v>-22.72606712480382</v>
       </c>
       <c r="F18" t="n">
-        <v>7.294609475879738</v>
+        <v>7.597277332974762</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.252961921510634</v>
+        <v>-5.072314326900497</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.587391221480736</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.23987454982736</v>
+        <v>-23.34496646473789</v>
       </c>
       <c r="F19" t="n">
-        <v>7.602514254111451</v>
+        <v>7.90552251108036</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.394015208973512</v>
+        <v>-4.209714861870534</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.026614940448323</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.13089740432671</v>
+        <v>-24.24190704012171</v>
       </c>
       <c r="F20" t="n">
-        <v>7.810498577055112</v>
+        <v>8.120786154404019</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.898641746351122</v>
+        <v>-3.751196231747604</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.503331896847363</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.32595962436559</v>
+        <v>-24.38737561699612</v>
       </c>
       <c r="F21" t="n">
-        <v>7.676092996081952</v>
+        <v>7.975199746804026</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.839425260597995</v>
+        <v>-3.708750985934727</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.025606964042484</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.00776747945416</v>
+        <v>-25.06672211915045</v>
       </c>
       <c r="F22" t="n">
-        <v>8.064882021269849</v>
+        <v>8.370770584863937</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.173449182998953</v>
+        <v>-4.084238231435431</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.601113804283262</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.1721020647235</v>
+        <v>-25.20936275861105</v>
       </c>
       <c r="F23" t="n">
-        <v>7.742235310038352</v>
+        <v>8.020734776087549</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.048116567895109</v>
+        <v>-3.968423720497523</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.248653218291122</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.57746594530902</v>
+        <v>-25.61683449995409</v>
       </c>
       <c r="F24" t="n">
-        <v>7.716600581074252</v>
+        <v>7.992874355640356</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.896101839599828</v>
+        <v>-3.833258785959543</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.9726367883455885</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.66136142191881</v>
+        <v>-25.6687978499329</v>
       </c>
       <c r="F25" t="n">
-        <v>7.834117091381586</v>
+        <v>8.115313571816179</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.794989984753177</v>
+        <v>-3.724226087893648</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.7861478816315639</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.98620764002771</v>
+        <v>-25.99365716034465</v>
       </c>
       <c r="F26" t="n">
-        <v>7.740035803160942</v>
+        <v>8.015654962584959</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.60060856446207</v>
+        <v>-3.535618373155742</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.6917236051220744</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.92675549282344</v>
+        <v>-25.95160468361703</v>
       </c>
       <c r="F27" t="n">
-        <v>7.684262593055189</v>
+        <v>7.944773234999855</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.694022145237786</v>
+        <v>-3.65051642289473</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.686259080159198</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.88167869413937</v>
+        <v>-25.89735018064092</v>
       </c>
       <c r="F28" t="n">
-        <v>7.535324555927714</v>
+        <v>7.810393838632378</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.900239007297813</v>
+        <v>-3.873569986409217</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.767519682906851</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.80209058516452</v>
+        <v>-25.77701882522261</v>
       </c>
       <c r="F29" t="n">
-        <v>7.484840636170017</v>
+        <v>7.757291458306337</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.693223514764441</v>
+        <v>-3.671136799870449</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.9196808272507679</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.66328599043654</v>
+        <v>-25.64457708967571</v>
       </c>
       <c r="F30" t="n">
-        <v>7.58316383051138</v>
+        <v>7.85781415952511</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.855685900727419</v>
+        <v>-3.826254403939219</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.132881879244798</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.32720657648943</v>
+        <v>-25.3183169028599</v>
       </c>
       <c r="F31" t="n">
-        <v>7.419064906693186</v>
+        <v>7.687221453497419</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.222257287992908</v>
+        <v>-4.216103905657296</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.388146743369151</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.91134266902484</v>
+        <v>-24.89246356832707</v>
       </c>
       <c r="F32" t="n">
-        <v>7.53665997081757</v>
+        <v>7.824454971884392</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.160736556939637</v>
+        <v>-4.131606183116796</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.66581967720389</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.7505560978256</v>
+        <v>-24.74005607094654</v>
       </c>
       <c r="F33" t="n">
-        <v>7.532758464570735</v>
+        <v>7.837494905514751</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.296726306556645</v>
+        <v>-4.266155779421215</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.948447372345529</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.3462657860731</v>
+        <v>-24.34723461648339</v>
       </c>
       <c r="F34" t="n">
-        <v>7.642995654498068</v>
+        <v>7.953885477777696</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.335623538299413</v>
+        <v>-4.300876566557473</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.213639516586301</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.20756592976786</v>
+        <v>-24.19625418011261</v>
       </c>
       <c r="F35" t="n">
-        <v>7.540142523373468</v>
+        <v>7.850979977441729</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.498819093221528</v>
+        <v>-4.464857659650091</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.449638799590471</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.84290601871726</v>
+        <v>-23.84974020080064</v>
       </c>
       <c r="F36" t="n">
-        <v>7.675386011728499</v>
+        <v>7.992612509583521</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.4538470329602</v>
+        <v>-4.400260237429015</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.645642807978778</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.28047378093955</v>
+        <v>-23.27163647652139</v>
       </c>
       <c r="F37" t="n">
-        <v>7.645011869135694</v>
+        <v>7.957079999671077</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.568378498219619</v>
+        <v>-4.514765518082752</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.799045964133476</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.76860401673659</v>
+        <v>-22.76974304708382</v>
       </c>
       <c r="F38" t="n">
-        <v>7.599214993795337</v>
+        <v>7.936079945912948</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.519923885402391</v>
+        <v>-4.480790992208472</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.914529933499067</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.57673631859109</v>
+        <v>-22.58404182357678</v>
       </c>
       <c r="F39" t="n">
-        <v>7.771195483924251</v>
+        <v>8.101357176986898</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.720864549417203</v>
+        <v>-4.707890077301053</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.995939022539178</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.87869400797878</v>
+        <v>-21.88488666722292</v>
       </c>
       <c r="F40" t="n">
-        <v>8.028040281073233</v>
+        <v>8.373336676220916</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.695269097361629</v>
+        <v>-4.668783368712817</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.054140783493541</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.21956202141208</v>
+        <v>-21.21399779270435</v>
       </c>
       <c r="F41" t="n">
-        <v>8.02165123728647</v>
+        <v>8.359956342716671</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.716923766261844</v>
+        <v>-4.696879450611161</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.094069521948994</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.5066861316801</v>
+        <v>-20.50956643830528</v>
       </c>
       <c r="F42" t="n">
-        <v>8.042598921833232</v>
+        <v>8.364145879626024</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.05632862513075</v>
+        <v>-5.036506878628376</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.121931624447587</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.69713667776481</v>
+        <v>-19.67163287182913</v>
       </c>
       <c r="F43" t="n">
-        <v>8.14657799100222</v>
+        <v>8.475194792329544</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.212218675067183</v>
+        <v>-5.194701173864953</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.142979566462054</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.00348028860448</v>
+        <v>-18.98724583308074</v>
       </c>
       <c r="F44" t="n">
-        <v>7.945820619227193</v>
+        <v>8.251185490707611</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.024409590802621</v>
+        <v>-4.990160126568666</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.156792609656641</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54869296479144</v>
+        <v>-18.5213824210636</v>
       </c>
       <c r="F45" t="n">
-        <v>7.975225931409709</v>
+        <v>8.295201812861494</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.230207499171714</v>
+        <v>-5.183219224272759</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.171489952571168</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.85325602244464</v>
+        <v>-17.84216684193769</v>
       </c>
       <c r="F46" t="n">
-        <v>8.083080322219848</v>
+        <v>8.378285566695087</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.367689771312679</v>
+        <v>-5.31960174297502</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.187257258398297</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.69338591244432</v>
+        <v>-17.69207668216015</v>
       </c>
       <c r="F47" t="n">
-        <v>7.94815104913302</v>
+        <v>8.24207324792977</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.660525308973567</v>
+        <v>-5.615396141078136</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.211220380238823</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.0627689614669</v>
+        <v>-17.05055384291557</v>
       </c>
       <c r="F48" t="n">
-        <v>7.905810541742878</v>
+        <v>8.188918498392361</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.754017443566332</v>
+        <v>-5.709922567595399</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.250460299336051</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.21100992318988</v>
+        <v>-16.18418379466719</v>
       </c>
       <c r="F49" t="n">
-        <v>7.852472499965685</v>
+        <v>8.12578741408956</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.996526169103624</v>
+        <v>-5.934180622971325</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.30636866357546</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.65334328364656</v>
+        <v>-15.62924035411495</v>
       </c>
       <c r="F50" t="n">
-        <v>7.598089055750949</v>
+        <v>7.871142123817987</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.219907040189154</v>
+        <v>-6.161449908000847</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.391965609547337</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.93487698060116</v>
+        <v>-14.91072168185818</v>
       </c>
       <c r="F51" t="n">
-        <v>7.448810618749587</v>
+        <v>7.701858648074469</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.17747488667912</v>
+        <v>-6.112314495435849</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.507897587626237</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.27529985573784</v>
+        <v>-14.23349613276421</v>
       </c>
       <c r="F52" t="n">
-        <v>7.331503585287722</v>
+        <v>7.573108941928935</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.38090308823386</v>
+        <v>-6.29474264323246</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.667805470980845</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.78202116157013</v>
+        <v>-13.744891390711</v>
       </c>
       <c r="F53" t="n">
-        <v>7.366695695326282</v>
+        <v>7.618225017521523</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.417888843761736</v>
+        <v>-6.326583123743538</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.881407861842759</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.32373819289835</v>
+        <v>-13.30039461693155</v>
       </c>
       <c r="F54" t="n">
-        <v>7.146064207837514</v>
+        <v>7.39937408321923</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.634723563426403</v>
+        <v>-6.54891661060173</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.151693592350925</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.72877158255895</v>
+        <v>-12.70588623719162</v>
       </c>
       <c r="F55" t="n">
-        <v>7.130850951935428</v>
+        <v>7.366014895578512</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.946909524687361</v>
+        <v>-6.874142505493047</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.491564766727422</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.45384631518555</v>
+        <v>-12.42260808060519</v>
       </c>
       <c r="F56" t="n">
-        <v>7.160177710300895</v>
+        <v>7.409507525618726</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.915985505375204</v>
+        <v>-6.8288824145692</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.891275572111247</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.00364129736711</v>
+        <v>-11.9651368347096</v>
       </c>
       <c r="F57" t="n">
-        <v>6.819280328908031</v>
+        <v>7.055020333876151</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.158415677095446</v>
+        <v>-7.068537018086996</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.355023420753966</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.57730354762914</v>
+        <v>-11.5375029469903</v>
       </c>
       <c r="F58" t="n">
-        <v>6.961960245277162</v>
+        <v>7.206341170120821</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.873189950739481</v>
+        <v>-7.816172971863764</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.873861988096378</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.51718369297994</v>
+        <v>-11.50563628187354</v>
       </c>
       <c r="F59" t="n">
-        <v>6.81904466745688</v>
+        <v>7.060623839492409</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.901953740082753</v>
+        <v>-7.826515891108727</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.434106138144882</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.27797422775876</v>
+        <v>-11.27400725999772</v>
       </c>
       <c r="F60" t="n">
-        <v>6.678380965725375</v>
+        <v>6.912759371197955</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.13980160580839</v>
+        <v>-8.065856279358322</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.033446196801037</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.32430788751563</v>
+        <v>-11.32295938032293</v>
       </c>
       <c r="F61" t="n">
-        <v>6.511742135155886</v>
+        <v>6.740281373561056</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.603753541610637</v>
+        <v>-8.534128675098337</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.646225819238359</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.37582609919782</v>
+        <v>-11.40284861226315</v>
       </c>
       <c r="F62" t="n">
-        <v>6.509594997489843</v>
+        <v>6.76549714883422</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.820588261275304</v>
+        <v>-8.761149206373867</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.270305030322854</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.018877554521</v>
+        <v>-11.04205093055086</v>
       </c>
       <c r="F63" t="n">
-        <v>6.809801501650622</v>
+        <v>7.08481841514392</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.859210554658397</v>
+        <v>-8.804681113322607</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.888611869162352</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.79670117529691</v>
+        <v>-10.79274729983871</v>
       </c>
       <c r="F64" t="n">
-        <v>6.659292388182139</v>
+        <v>6.931690841107091</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.068530292491912</v>
+        <v>-9.028009615196771</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.486552114955019</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.84037709757691</v>
+        <v>-10.82446994962421</v>
       </c>
       <c r="F65" t="n">
-        <v>6.629677599154155</v>
+        <v>6.906763096496445</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.13692448253709</v>
+        <v>-9.095932482339645</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.06135136575756</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.56094807802595</v>
+        <v>-10.54110014691789</v>
       </c>
       <c r="F66" t="n">
-        <v>6.47225574978524</v>
+        <v>6.733002053181057</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.504674177058332</v>
+        <v>-9.482652923678549</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.58924096434938</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.79743434425605</v>
+        <v>-10.77606770601835</v>
       </c>
       <c r="F67" t="n">
-        <v>6.225884794909639</v>
+        <v>6.490846819820491</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.552500359339158</v>
+        <v>-9.532521505202684</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.07288812638568</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.92427257418669</v>
+        <v>-10.92531995841403</v>
       </c>
       <c r="F68" t="n">
-        <v>6.194070499004245</v>
+        <v>6.460079908142434</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.380297300061935</v>
+        <v>-9.355670678416649</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.49783969814452</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.72118477250584</v>
+        <v>-10.7240912637367</v>
       </c>
       <c r="F69" t="n">
-        <v>6.204780002728777</v>
+        <v>6.457487632179773</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.402292368836035</v>
+        <v>-9.363251121762008</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.85706408985853</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.96708440447913</v>
+        <v>-10.97856635407133</v>
       </c>
       <c r="F70" t="n">
-        <v>5.984646022747994</v>
+        <v>6.250733985703235</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.488295706203333</v>
+        <v>-9.473514496295024</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.15249972719224</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.94048084510475</v>
+        <v>-10.94245778283385</v>
       </c>
       <c r="F71" t="n">
-        <v>5.687948255748799</v>
+        <v>5.920310446583753</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.462242023548299</v>
+        <v>-9.442485738560134</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.36760020338809</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.99503647104622</v>
+        <v>-10.98406512126485</v>
       </c>
       <c r="F72" t="n">
-        <v>5.890957503612603</v>
+        <v>6.150787345809499</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.711637300380339</v>
+        <v>-9.715146037541921</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.5140462223696</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.43173023233199</v>
+        <v>-11.4240450505639</v>
       </c>
       <c r="F73" t="n">
-        <v>5.995643557135044</v>
+        <v>6.26738739491791</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.477258894907758</v>
+        <v>-9.454294995723371</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.58307591558176</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.55809713936033</v>
+        <v>-11.55344937185152</v>
       </c>
       <c r="F74" t="n">
-        <v>5.980456485838642</v>
+        <v>6.232221469485034</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.536737226717721</v>
+        <v>-9.525019615674376</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.57710612892077</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.07440519422664</v>
+        <v>-12.07931480779229</v>
       </c>
       <c r="F75" t="n">
-        <v>5.927642136175119</v>
+        <v>6.189933331306259</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.672674607123362</v>
+        <v>-9.686814294192425</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.50165881505181</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.01034455642208</v>
+        <v>-11.98469673515513</v>
       </c>
       <c r="F76" t="n">
-        <v>5.820782760380951</v>
+        <v>6.079512849139141</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.702826180567858</v>
+        <v>-9.731747077545229</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.34398135311089</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.67928267781723</v>
+        <v>-12.67548590999313</v>
       </c>
       <c r="F77" t="n">
-        <v>5.800358767947858</v>
+        <v>6.046284584526841</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.467976452192975</v>
+        <v>-9.487667275666931</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.1163841782183</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37456251252993</v>
+        <v>-13.37272959013209</v>
       </c>
       <c r="F78" t="n">
-        <v>5.86377788291318</v>
+        <v>6.107373269586335</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.885277329616272</v>
+        <v>-8.873598995481453</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.80698150377528</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.66847161902384</v>
+        <v>-13.6399042142232</v>
       </c>
       <c r="F79" t="n">
-        <v>6.04976713708274</v>
+        <v>6.297394953031147</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.059810818799322</v>
+        <v>-9.081347656973962</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.41762927555824</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.25669569339975</v>
+        <v>-14.2346220708086</v>
       </c>
       <c r="F80" t="n">
-        <v>6.062545224656264</v>
+        <v>6.301846335997333</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.496710873576685</v>
+        <v>-8.499394795659239</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.94957469825302</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.84197399963627</v>
+        <v>-14.8244434061312</v>
       </c>
       <c r="F81" t="n">
-        <v>6.140313503536118</v>
+        <v>6.397263039107833</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.362056538849531</v>
+        <v>-8.358600170899317</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.39256358862331</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.69368066870192</v>
+        <v>-15.67336141469156</v>
       </c>
       <c r="F82" t="n">
-        <v>6.145052917164822</v>
+        <v>6.411009957091646</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.251204010688637</v>
+        <v>-8.248755750057235</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.762497368639345</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.72105985729785</v>
+        <v>-16.69458722095188</v>
       </c>
       <c r="F83" t="n">
-        <v>6.313969808428772</v>
+        <v>6.58390690841948</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.102842034886198</v>
+        <v>-8.112766000440226</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.056585522985738</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.6654862150886</v>
+        <v>-17.61690067924296</v>
       </c>
       <c r="F84" t="n">
-        <v>6.246858664062084</v>
+        <v>6.524179822855526</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.748970181377183</v>
+        <v>-7.760648515512004</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.292150497988889</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.5314242173432</v>
+        <v>-18.47802071405181</v>
       </c>
       <c r="F85" t="n">
-        <v>6.481996423099484</v>
+        <v>6.741721526873646</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.541365535215934</v>
+        <v>-7.539493335909566</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.486739712409655</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.80878783639905</v>
+        <v>-19.75732199392823</v>
       </c>
       <c r="F86" t="n">
-        <v>6.353587116827835</v>
+        <v>6.610300990948399</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.544154195721221</v>
+        <v>-7.562326312065537</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.654752524524531</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.86307170733473</v>
+        <v>-20.80886957356998</v>
       </c>
       <c r="F87" t="n">
-        <v>6.420488784349056</v>
+        <v>6.689954561437461</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.045926611079335</v>
+        <v>-7.034732692149659</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.831298126665206</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.24399544186862</v>
+        <v>-22.15710182790809</v>
       </c>
       <c r="F88" t="n">
-        <v>6.716165351726596</v>
+        <v>6.995686017397448</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.107355696012714</v>
+        <v>-7.098099437903614</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.033006292655609</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.86031878149676</v>
+        <v>-23.79911226571169</v>
       </c>
       <c r="F89" t="n">
-        <v>6.558926794597467</v>
+        <v>6.832451185566808</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.78549452295172</v>
+        <v>-6.773096112160606</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.291432493075941</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.16480965204066</v>
+        <v>-25.05974392173581</v>
       </c>
       <c r="F90" t="n">
-        <v>6.832477370172491</v>
+        <v>7.12464520038845</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.173681302208898</v>
+        <v>-7.174794147950445</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.626687087509439</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.90253791592012</v>
+        <v>-26.79895161583638</v>
       </c>
       <c r="F91" t="n">
-        <v>6.940462684011048</v>
+        <v>7.225010793973122</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.72253363858586</v>
+        <v>-6.716956317575285</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.04938383009435</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.88803801107925</v>
+        <v>-28.78602278733651</v>
       </c>
       <c r="F92" t="n">
-        <v>6.6838797329189</v>
+        <v>6.946589881740976</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.974468822169195</v>
+        <v>-6.97056731592236</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.57431211239828</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.74781272204928</v>
+        <v>-30.64637355963158</v>
       </c>
       <c r="F93" t="n">
-        <v>6.69411791374113</v>
+        <v>6.974240825342701</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.307494546200302</v>
+        <v>-6.258948287263181</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.192752282921484</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.74703355058653</v>
+        <v>-32.6340993462738</v>
       </c>
       <c r="F94" t="n">
-        <v>6.672384691023865</v>
+        <v>6.935330501297091</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.634579548095144</v>
+        <v>-6.609638711181656</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.902928222183765</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.05542911073114</v>
+        <v>-34.96519695954597</v>
       </c>
       <c r="F95" t="n">
-        <v>6.620198771896745</v>
+        <v>6.899850360596013</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.061974591009413</v>
+        <v>-6.000715706012977</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.690311715842491</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.47055312364151</v>
+        <v>-37.39143633756896</v>
       </c>
       <c r="F96" t="n">
-        <v>6.398415161757905</v>
+        <v>6.661675187299333</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.012197655605171</v>
+        <v>-5.939901959313159</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.536008128538018</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.47108318246293</v>
+        <v>-39.37770887859575</v>
       </c>
       <c r="F97" t="n">
-        <v>6.3202541137928</v>
+        <v>6.595271027286098</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.613458480257561</v>
+        <v>-5.533608525225874</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.429078549139496</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.89033127076845</v>
+        <v>-41.79259723005496</v>
       </c>
       <c r="F98" t="n">
-        <v>6.235258883744315</v>
+        <v>6.513287026891209</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.799277534490179</v>
+        <v>-5.720278579143204</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.345597494215556</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.21960905394561</v>
+        <v>-44.15036386421573</v>
       </c>
       <c r="F99" t="n">
-        <v>6.075716081315041</v>
+        <v>6.345705550517116</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.542288722009938</v>
+        <v>-5.459925044832639</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.280601668534521</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.35322237115319</v>
+        <v>-46.2755064614847</v>
       </c>
       <c r="F100" t="n">
-        <v>5.813634363029369</v>
+        <v>6.080979187057415</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.608287020635079</v>
+        <v>-5.524902143836126</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.215262280833918</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.78619119283682</v>
+        <v>-48.70225643931852</v>
       </c>
       <c r="F101" t="n">
-        <v>5.76692102649009</v>
+        <v>6.049793321688424</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.646398714207344</v>
+        <v>-5.548769411916592</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.158162130797318</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.21766749199651</v>
+        <v>-51.16426398870511</v>
       </c>
       <c r="F102" t="n">
-        <v>5.097825797460837</v>
+        <v>5.340085769244137</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.335980213830019</v>
+        <v>-5.234829082074843</v>
       </c>
     </row>
   </sheetData>
